--- a/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/index/UsingIndexedArrayInCustomConvertersTest.xlsx
+++ b/MAPPING/trunk/org.openl.rules.mapping.dev/src/test/resources/org/openl/rules/mapping/index/UsingIndexedArrayInCustomConvertersTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>classA</t>
   </si>
@@ -115,6 +115,9 @@
 res[1] = dest[1];
 res[2] = src.getB().getAString();
 return res;</t>
+  </si>
+  <si>
+    <t>org.openl.rules.mapping.to.containers</t>
   </si>
 </sst>
 </file>
@@ -522,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,6 +559,12 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="4:9">
+      <c r="D5" s="7"/>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="8" spans="4:9">
       <c r="D8" s="4" t="s">
         <v>10</v>
@@ -660,7 +669,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -671,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C10:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
